--- a/sensitivityAnalyses/NGAM/NGAMresults.xlsx
+++ b/sensitivityAnalyses/NGAM/NGAMresults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanus\Scripts\git\ODE_FBA_Photosynthesis2021\sensitivityAnalyses\NGAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A28D422-8C7B-4E49-8EC4-D9DA9EC1FD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E11BD4F-21B0-4683-9B05-D6A7C117603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{C98905A1-0B2C-43CE-B016-DA5E209609B8}"/>
+    <workbookView xWindow="6045" yWindow="180" windowWidth="17280" windowHeight="9030" activeTab="6" xr2:uid="{C98905A1-0B2C-43CE-B016-DA5E209609B8}"/>
   </bookViews>
   <sheets>
     <sheet name="FBA fluxes day" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8586" uniqueCount="2193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8586" uniqueCount="2192">
   <si>
     <t>PRO_PROTON_vc</t>
   </si>
@@ -6706,9 +6706,6 @@
   </si>
   <si>
     <t>Vc</t>
-  </si>
-  <si>
-    <t>Vo</t>
   </si>
   <si>
     <t>starch synthesis</t>
@@ -7028,7 +7025,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vo</c:v>
+                  <c:v>CO2_tx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7068,13 +7065,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="0.00E+00">
-                  <c:v>9.3439460000000008</c:v>
+                  <c:v>-6.3391371285933698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.3452470000000005</c:v>
+                  <c:v>-7.5094865319066502</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>9.347016</c:v>
+                  <c:v>-8.6807598963091905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7728,7 +7725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vo</c:v>
+                  <c:v>CO2_tx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7768,13 +7765,13 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.2873580000000002</c:v>
+                  <c:v>-4.99906341353344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2964010000000004</c:v>
+                  <c:v>-6.2339500682896603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2938859999999996</c:v>
+                  <c:v>-6.8824908849721398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9744,8 +9741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7867151F-56C4-4274-B452-D495D204322E}">
   <dimension ref="A1:E912"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+    <sheetView topLeftCell="A277" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21575,7 +21572,7 @@
         <v>1388</v>
       </c>
       <c r="B696" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -24938,10 +24935,10 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B894" t="s">
         <v>2171</v>
-      </c>
-      <c r="B894" t="s">
-        <v>2172</v>
       </c>
       <c r="C894">
         <v>3.8775008783389998E-2</v>
@@ -24955,10 +24952,10 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B895" t="s">
         <v>2173</v>
-      </c>
-      <c r="B895" t="s">
-        <v>2174</v>
       </c>
       <c r="C895">
         <v>3.8775008783389998E-2</v>
@@ -24972,10 +24969,10 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B896" t="s">
         <v>2175</v>
-      </c>
-      <c r="B896" t="s">
-        <v>2176</v>
       </c>
       <c r="C896">
         <v>3.8775008783389998E-2</v>
@@ -24989,10 +24986,10 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B897" t="s">
         <v>2177</v>
-      </c>
-      <c r="B897" t="s">
-        <v>2178</v>
       </c>
       <c r="C897">
         <v>3.8775008783389998E-2</v>
@@ -25006,10 +25003,10 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B898" t="s">
         <v>2179</v>
-      </c>
-      <c r="B898" t="s">
-        <v>2180</v>
       </c>
       <c r="C898">
         <v>3.8775008783389998E-2</v>
@@ -25023,10 +25020,10 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B899" t="s">
         <v>2181</v>
-      </c>
-      <c r="B899" t="s">
-        <v>2182</v>
       </c>
       <c r="C899">
         <v>3.8775008783389998E-2</v>
@@ -25040,10 +25037,10 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B900" t="s">
         <v>2183</v>
-      </c>
-      <c r="B900" t="s">
-        <v>2184</v>
       </c>
       <c r="C900">
         <v>7.7550017566779997E-2</v>
@@ -25057,10 +25054,10 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B901" t="s">
         <v>2185</v>
-      </c>
-      <c r="B901" t="s">
-        <v>2186</v>
       </c>
       <c r="C901">
         <v>3.8775008783389998E-2</v>
@@ -25074,10 +25071,10 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B902" t="s">
         <v>2187</v>
-      </c>
-      <c r="B902" t="s">
-        <v>2188</v>
       </c>
       <c r="C902">
         <v>0.15510003513355999</v>
@@ -25091,10 +25088,10 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B903" t="s">
         <v>2189</v>
-      </c>
-      <c r="B903" t="s">
-        <v>2190</v>
       </c>
       <c r="C903">
         <v>-0.124855528282515</v>
@@ -25108,10 +25105,10 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B904" t="s">
         <v>2191</v>
-      </c>
-      <c r="B904" t="s">
-        <v>2192</v>
       </c>
       <c r="C904">
         <v>-0.15510003513355999</v>
@@ -25268,7 +25265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F4A8E3-AA57-4136-BD6A-1BC3A4307989}">
   <dimension ref="A1:I912"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A277" workbookViewId="0">
       <selection activeCell="E1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -37248,7 +37245,7 @@
         <v>1388</v>
       </c>
       <c r="B696" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -40635,10 +40632,10 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B894" t="s">
         <v>2171</v>
-      </c>
-      <c r="B894" t="s">
-        <v>2172</v>
       </c>
       <c r="C894">
         <v>5.3790836452717698E-2</v>
@@ -40652,10 +40649,10 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B895" t="s">
         <v>2173</v>
-      </c>
-      <c r="B895" t="s">
-        <v>2174</v>
       </c>
       <c r="C895">
         <v>5.3790836452717698E-2</v>
@@ -40669,10 +40666,10 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B896" t="s">
         <v>2175</v>
-      </c>
-      <c r="B896" t="s">
-        <v>2176</v>
       </c>
       <c r="C896">
         <v>5.3790836452717698E-2</v>
@@ -40686,10 +40683,10 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B897" t="s">
         <v>2177</v>
-      </c>
-      <c r="B897" t="s">
-        <v>2178</v>
       </c>
       <c r="C897">
         <v>5.3790836452717698E-2</v>
@@ -40703,10 +40700,10 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B898" t="s">
         <v>2179</v>
-      </c>
-      <c r="B898" t="s">
-        <v>2180</v>
       </c>
       <c r="C898">
         <v>5.3790836452717698E-2</v>
@@ -40720,10 +40717,10 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B899" t="s">
         <v>2181</v>
-      </c>
-      <c r="B899" t="s">
-        <v>2182</v>
       </c>
       <c r="C899">
         <v>5.3790836452717698E-2</v>
@@ -40737,10 +40734,10 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B900" t="s">
         <v>2183</v>
-      </c>
-      <c r="B900" t="s">
-        <v>2184</v>
       </c>
       <c r="C900">
         <v>0.10758167290543499</v>
@@ -40754,10 +40751,10 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B901" t="s">
         <v>2185</v>
-      </c>
-      <c r="B901" t="s">
-        <v>2186</v>
       </c>
       <c r="C901">
         <v>5.3790836452717698E-2</v>
@@ -40771,10 +40768,10 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B902" t="s">
         <v>2187</v>
-      </c>
-      <c r="B902" t="s">
-        <v>2188</v>
       </c>
       <c r="C902">
         <v>0.21516334581087099</v>
@@ -40788,10 +40785,10 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B903" t="s">
         <v>2189</v>
-      </c>
-      <c r="B903" t="s">
-        <v>2190</v>
       </c>
       <c r="C903">
         <v>-0.17320649337775099</v>
@@ -40805,10 +40802,10 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B904" t="s">
         <v>2191</v>
-      </c>
-      <c r="B904" t="s">
-        <v>2192</v>
       </c>
       <c r="C904">
         <v>-0.21516334581087099</v>
@@ -52900,7 +52897,7 @@
         <v>1388</v>
       </c>
       <c r="B696" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -56290,10 +56287,10 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B894" t="s">
         <v>2171</v>
-      </c>
-      <c r="B894" t="s">
-        <v>2172</v>
       </c>
       <c r="C894">
         <v>1.6266567563065E-2</v>
@@ -56307,10 +56304,10 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B895" t="s">
         <v>2173</v>
-      </c>
-      <c r="B895" t="s">
-        <v>2174</v>
       </c>
       <c r="C895">
         <v>1.6266567563065E-2</v>
@@ -56324,10 +56321,10 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B896" t="s">
         <v>2175</v>
-      </c>
-      <c r="B896" t="s">
-        <v>2176</v>
       </c>
       <c r="C896">
         <v>1.6266567563065E-2</v>
@@ -56341,10 +56338,10 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B897" t="s">
         <v>2177</v>
-      </c>
-      <c r="B897" t="s">
-        <v>2178</v>
       </c>
       <c r="C897">
         <v>1.6266567563065E-2</v>
@@ -56358,10 +56355,10 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B898" t="s">
         <v>2179</v>
-      </c>
-      <c r="B898" t="s">
-        <v>2180</v>
       </c>
       <c r="C898">
         <v>1.6266567563065E-2</v>
@@ -56375,10 +56372,10 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B899" t="s">
         <v>2181</v>
-      </c>
-      <c r="B899" t="s">
-        <v>2182</v>
       </c>
       <c r="C899">
         <v>1.6266567563065E-2</v>
@@ -56392,10 +56389,10 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B900" t="s">
         <v>2183</v>
-      </c>
-      <c r="B900" t="s">
-        <v>2184</v>
       </c>
       <c r="C900">
         <v>3.253313512613E-2</v>
@@ -56409,10 +56406,10 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B901" t="s">
         <v>2185</v>
-      </c>
-      <c r="B901" t="s">
-        <v>2186</v>
       </c>
       <c r="C901">
         <v>1.6266567563065E-2</v>
@@ -56426,10 +56423,10 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B902" t="s">
         <v>2187</v>
-      </c>
-      <c r="B902" t="s">
-        <v>2188</v>
       </c>
       <c r="C902">
         <v>6.506627025226E-2</v>
@@ -56443,10 +56440,10 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B903" t="s">
         <v>2189</v>
-      </c>
-      <c r="B903" t="s">
-        <v>2190</v>
       </c>
       <c r="C903">
         <v>-5.23783475530692E-2</v>
@@ -56460,10 +56457,10 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B904" t="s">
         <v>2191</v>
-      </c>
-      <c r="B904" t="s">
-        <v>2192</v>
       </c>
       <c r="C904">
         <v>-6.506627025226E-2</v>
@@ -68406,7 +68403,7 @@
         <v>1388</v>
       </c>
       <c r="B696" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="C696">
         <v>0</v>
@@ -71781,10 +71778,10 @@
     </row>
     <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B894" t="s">
         <v>2171</v>
-      </c>
-      <c r="B894" t="s">
-        <v>2172</v>
       </c>
       <c r="C894">
         <v>3.0715795938175999E-2</v>
@@ -71798,10 +71795,10 @@
     </row>
     <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B895" t="s">
         <v>2173</v>
-      </c>
-      <c r="B895" t="s">
-        <v>2174</v>
       </c>
       <c r="C895">
         <v>3.0715795938175999E-2</v>
@@ -71815,10 +71812,10 @@
     </row>
     <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B896" t="s">
         <v>2175</v>
-      </c>
-      <c r="B896" t="s">
-        <v>2176</v>
       </c>
       <c r="C896">
         <v>3.0715795938175999E-2</v>
@@ -71832,10 +71829,10 @@
     </row>
     <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B897" t="s">
         <v>2177</v>
-      </c>
-      <c r="B897" t="s">
-        <v>2178</v>
       </c>
       <c r="C897">
         <v>3.0715795938175999E-2</v>
@@ -71849,10 +71846,10 @@
     </row>
     <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B898" t="s">
         <v>2179</v>
-      </c>
-      <c r="B898" t="s">
-        <v>2180</v>
       </c>
       <c r="C898">
         <v>3.0715795938175999E-2</v>
@@ -71866,10 +71863,10 @@
     </row>
     <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B899" t="s">
         <v>2181</v>
-      </c>
-      <c r="B899" t="s">
-        <v>2182</v>
       </c>
       <c r="C899">
         <v>3.0715795938175999E-2</v>
@@ -71883,10 +71880,10 @@
     </row>
     <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B900" t="s">
         <v>2183</v>
-      </c>
-      <c r="B900" t="s">
-        <v>2184</v>
       </c>
       <c r="C900">
         <v>6.1431591876352103E-2</v>
@@ -71900,10 +71897,10 @@
     </row>
     <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B901" t="s">
         <v>2185</v>
-      </c>
-      <c r="B901" t="s">
-        <v>2186</v>
       </c>
       <c r="C901">
         <v>3.0715795938175999E-2</v>
@@ -71917,10 +71914,10 @@
     </row>
     <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B902" t="s">
         <v>2187</v>
-      </c>
-      <c r="B902" t="s">
-        <v>2188</v>
       </c>
       <c r="C902">
         <v>0.122863183752704</v>
@@ -71934,10 +71931,10 @@
     </row>
     <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B903" t="s">
         <v>2189</v>
-      </c>
-      <c r="B903" t="s">
-        <v>2190</v>
       </c>
       <c r="C903">
         <v>-9.89048629209269E-2</v>
@@ -71951,10 +71948,10 @@
     </row>
     <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B904" t="s">
         <v>2191</v>
-      </c>
-      <c r="B904" t="s">
-        <v>2192</v>
       </c>
       <c r="C904">
         <v>-0.122863183752704</v>
@@ -79797,7 +79794,7 @@
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:L10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -79868,27 +79865,27 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2161</v>
+        <v>594</v>
       </c>
       <c r="B3" s="1" cm="1">
-        <f t="array" ref="B3:D3">'ODE fluxes'!G3:I3</f>
-        <v>9.3439460000000008</v>
+        <f t="array" ref="B3:D3">'FBA fluxes day'!C299:E299</f>
+        <v>-6.3391371285933698</v>
       </c>
       <c r="C3">
-        <v>9.3452470000000005</v>
+        <v>-7.5094865319066502</v>
       </c>
       <c r="D3" s="1">
-        <v>9.347016</v>
+        <v>-8.6807598963091905</v>
       </c>
       <c r="H3" s="1" cm="1">
-        <f t="array" ref="H3:J3">'ODE fluxes 800 CO2'!G3:I3</f>
-        <v>6.2873580000000002</v>
+        <f t="array" ref="H3:J3">'FBA fluxes day 800 CO2'!C299:E299</f>
+        <v>-4.99906341353344</v>
       </c>
       <c r="I3" s="1">
-        <v>6.2964010000000004</v>
+        <v>-6.2339500682896603</v>
       </c>
       <c r="J3" s="1">
-        <v>6.2938859999999996</v>
+        <v>-6.8824908849721398</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -79896,7 +79893,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="B4" s="1" cm="1">
         <f t="array" ref="B4:D4">'ODE fluxes'!G14:I14</f>
@@ -79924,7 +79921,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B5" s="1" cm="1">
         <f t="array" ref="B5:D5">'ODE fluxes'!G15:I15</f>
@@ -79952,7 +79949,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="B6" cm="1">
         <f t="array" ref="B6:D6">'FBA fluxes night'!C299:E299</f>
@@ -79977,77 +79974,77 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F7" t="s">
         <v>2168</v>
       </c>
-      <c r="F7" t="s">
-        <v>2169</v>
-      </c>
       <c r="K7" t="s">
+        <v>2167</v>
+      </c>
+      <c r="L7" t="s">
         <v>2168</v>
-      </c>
-      <c r="L7" t="s">
-        <v>2169</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="B8">
-        <f>B2-(B3*0.5)</f>
-        <v>23.013797</v>
+        <f>B2+B3</f>
+        <v>21.346632871406634</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:D8" si="0">C2-(C3*0.5)</f>
-        <v>23.016996500000001</v>
+        <f t="shared" ref="C8:D8" si="0">C2+C3</f>
+        <v>20.180133468093352</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>23.021352</v>
+        <v>19.014100103690808</v>
       </c>
       <c r="E8">
         <f>AVERAGE(B8:D8)</f>
-        <v>23.017381833333332</v>
+        <v>20.180288814396931</v>
       </c>
       <c r="F8">
         <f>_xlfn.STDEV.P(B8:E8)</f>
-        <v>2.6814984228349732E-3</v>
+        <v>0.82467487418265872</v>
       </c>
       <c r="H8">
-        <f>H2-(H3*0.5)</f>
-        <v>34.114741000000002</v>
+        <f>H2+H3</f>
+        <v>32.259356586466559</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8" si="1">I2-(I3*0.5)</f>
-        <v>34.163799499999996</v>
+        <f t="shared" ref="I8:J8" si="1">I2+I3</f>
+        <v>31.078049931710339</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8" si="2">J2-(J3*0.5)</f>
-        <v>34.150157</v>
+        <f t="shared" si="1"/>
+        <v>30.414609115027861</v>
       </c>
       <c r="K8">
         <f>AVERAGE(H8:J8)</f>
-        <v>34.142899166666666</v>
+        <v>31.25067187773492</v>
       </c>
       <c r="L8">
         <f>_xlfn.STDEV.P(H8:K8)</f>
-        <v>1.7905183803625008E-2</v>
+        <v>0.66072765211237083</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="B9">
         <f>B4-B5</f>
         <v>1.319334</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:D9" si="3">C4-C5</f>
+        <f t="shared" ref="C9:D9" si="2">C4-C5</f>
         <v>1.3205701000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.3220075</v>
       </c>
       <c r="E9">
@@ -80063,11 +80060,11 @@
         <v>2.3131856200000001</v>
       </c>
       <c r="I9">
-        <f t="shared" ref="I9" si="4">I4-I5</f>
+        <f t="shared" ref="I9" si="3">I4-I5</f>
         <v>2.34766545</v>
       </c>
       <c r="J9">
-        <f t="shared" ref="J9" si="5">J4-J5</f>
+        <f t="shared" ref="J9" si="4">J4-J5</f>
         <v>2.3378839199999999</v>
       </c>
       <c r="K9">
@@ -80081,18 +80078,18 @@
     </row>
     <row r="10" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="B10">
         <f>ABS(B6)</f>
         <v>1.30773846208677</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:D10" si="6">ABS(C6)</f>
+        <f t="shared" ref="C10:D10" si="5">ABS(C6)</f>
         <v>2.4350686738192802</v>
       </c>
       <c r="D10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3.6170581068369501</v>
       </c>
       <c r="E10">
@@ -80108,11 +80105,11 @@
         <v>1.4939075461798601</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10" si="7">ABS(I6)</f>
+        <f t="shared" ref="I10" si="6">ABS(I6)</f>
         <v>2.5658019484926999</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10" si="8">ABS(J6)</f>
+        <f t="shared" ref="J10" si="7">ABS(J6)</f>
         <v>3.6718616701429698</v>
       </c>
       <c r="K10">
